--- a/Selenium/Bugs/data/style/일렉트로닉.xlsx
+++ b/Selenium/Bugs/data/style/일렉트로닉.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1061" uniqueCount="1006">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1061" uniqueCount="1012">
   <si>
     <t>Title</t>
   </si>
@@ -70,7 +70,7 @@
     <t>My Best Friend</t>
   </si>
   <si>
-    <t>Montreal</t>
+    <t xml:space="preserve">Montreal </t>
   </si>
   <si>
     <t>Just Dance (Salute Remix)</t>
@@ -172,7 +172,7 @@
     <t>Tequila</t>
   </si>
   <si>
-    <t>[19금]</t>
+    <t>Move Like This</t>
   </si>
   <si>
     <t>Shot Down (feat. Jackie Legere)</t>
@@ -334,13 +334,13 @@
     <t>Ground Water (Radio Edit)</t>
   </si>
   <si>
-    <t>Believe In You (Deeper Mix)</t>
+    <t xml:space="preserve">Believe In You (Deeper Mix) </t>
   </si>
   <si>
     <t>Travelling Without Moving (Original Mix)</t>
   </si>
   <si>
-    <t>Fling Cleaning (Original Mix)</t>
+    <t xml:space="preserve">Fling Cleaning (Original Mix) </t>
   </si>
   <si>
     <t>Run Little House</t>
@@ -457,6 +457,9 @@
     <t>Touch (feat. Madi) (Extended Mix)</t>
   </si>
   <si>
+    <t>Tchu Tchu Tcha (feat. Enrique Iglesias)</t>
+  </si>
+  <si>
     <t>Too Original (feat. Elliphant &amp; Jovi Rockwell)</t>
   </si>
   <si>
@@ -469,6 +472,12 @@
     <t>Dumb (feat. Tiggs Da Author, Belly Squad)</t>
   </si>
   <si>
+    <t>Welcome to the Party (feat. Zhavia Ward)</t>
+  </si>
+  <si>
+    <t>Shots (feat. Lil Jon)</t>
+  </si>
+  <si>
     <t>Bangarang (feat. Sirah)</t>
   </si>
   <si>
@@ -934,6 +943,9 @@
     <t>Lose Somebody</t>
   </si>
   <si>
+    <t>RITMO (Bad Boys For Life) (Remix) *</t>
+  </si>
+  <si>
     <t>Mean It (feat. Wrabel)</t>
   </si>
   <si>
@@ -997,6 +1009,9 @@
     <t>Replay, Rerun, Redo (feat. Keanna)</t>
   </si>
   <si>
+    <t>Roses (Imanbek Remix) (Latino Gang)</t>
+  </si>
+  <si>
     <t>GPS</t>
   </si>
   <si>
@@ -1040,6 +1055,9 @@
   </si>
   <si>
     <t>Hello Bitches</t>
+  </si>
+  <si>
+    <t>Tough Cookie (Feat. Don Mills)</t>
   </si>
   <si>
     <t>품행제로</t>
@@ -3427,10 +3445,10 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>662</v>
+        <v>668</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -3441,10 +3459,10 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>663</v>
+        <v>669</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -3455,10 +3473,10 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>664</v>
+        <v>670</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -3469,10 +3487,10 @@
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>665</v>
+        <v>671</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -3483,10 +3501,10 @@
         <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>666</v>
+        <v>672</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -3497,10 +3515,10 @@
         <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>667</v>
+        <v>673</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -3511,10 +3529,10 @@
         <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>668</v>
+        <v>674</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -3525,10 +3543,10 @@
         <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>669</v>
+        <v>675</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -3539,10 +3557,10 @@
         <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>670</v>
+        <v>676</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -3553,10 +3571,10 @@
         <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>671</v>
+        <v>677</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -3567,10 +3585,10 @@
         <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>672</v>
+        <v>678</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -3581,10 +3599,10 @@
         <v>14</v>
       </c>
       <c r="C13" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>673</v>
+        <v>679</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -3595,10 +3613,10 @@
         <v>15</v>
       </c>
       <c r="C14" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>674</v>
+        <v>680</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -3609,10 +3627,10 @@
         <v>16</v>
       </c>
       <c r="C15" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>675</v>
+        <v>681</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -3623,10 +3641,10 @@
         <v>17</v>
       </c>
       <c r="C16" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>676</v>
+        <v>682</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -3637,10 +3655,10 @@
         <v>18</v>
       </c>
       <c r="C17" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>677</v>
+        <v>683</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -3651,10 +3669,10 @@
         <v>19</v>
       </c>
       <c r="C18" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>678</v>
+        <v>684</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -3665,10 +3683,10 @@
         <v>20</v>
       </c>
       <c r="C19" t="s">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>679</v>
+        <v>685</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -3679,10 +3697,10 @@
         <v>21</v>
       </c>
       <c r="C20" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>680</v>
+        <v>686</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -3693,10 +3711,10 @@
         <v>22</v>
       </c>
       <c r="C21" t="s">
-        <v>367</v>
+        <v>373</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>681</v>
+        <v>687</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -3707,10 +3725,10 @@
         <v>23</v>
       </c>
       <c r="C22" t="s">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>682</v>
+        <v>688</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -3721,10 +3739,10 @@
         <v>24</v>
       </c>
       <c r="C23" t="s">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>683</v>
+        <v>689</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -3735,10 +3753,10 @@
         <v>25</v>
       </c>
       <c r="C24" t="s">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>684</v>
+        <v>690</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -3749,10 +3767,10 @@
         <v>26</v>
       </c>
       <c r="C25" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>685</v>
+        <v>691</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -3763,10 +3781,10 @@
         <v>27</v>
       </c>
       <c r="C26" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>686</v>
+        <v>692</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -3777,10 +3795,10 @@
         <v>28</v>
       </c>
       <c r="C27" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>687</v>
+        <v>693</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -3791,10 +3809,10 @@
         <v>29</v>
       </c>
       <c r="C28" t="s">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>688</v>
+        <v>694</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -3805,10 +3823,10 @@
         <v>30</v>
       </c>
       <c r="C29" t="s">
-        <v>375</v>
+        <v>381</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>689</v>
+        <v>695</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -3819,10 +3837,10 @@
         <v>31</v>
       </c>
       <c r="C30" t="s">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>690</v>
+        <v>696</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -3833,10 +3851,10 @@
         <v>32</v>
       </c>
       <c r="C31" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>691</v>
+        <v>697</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -3847,10 +3865,10 @@
         <v>33</v>
       </c>
       <c r="C32" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>692</v>
+        <v>698</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -3861,10 +3879,10 @@
         <v>34</v>
       </c>
       <c r="C33" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>693</v>
+        <v>699</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -3875,10 +3893,10 @@
         <v>35</v>
       </c>
       <c r="C34" t="s">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>694</v>
+        <v>700</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -3889,10 +3907,10 @@
         <v>36</v>
       </c>
       <c r="C35" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>695</v>
+        <v>701</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -3903,10 +3921,10 @@
         <v>37</v>
       </c>
       <c r="C36" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>696</v>
+        <v>702</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -3917,10 +3935,10 @@
         <v>38</v>
       </c>
       <c r="C37" t="s">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>697</v>
+        <v>703</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -3931,10 +3949,10 @@
         <v>39</v>
       </c>
       <c r="C38" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>698</v>
+        <v>704</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -3945,10 +3963,10 @@
         <v>40</v>
       </c>
       <c r="C39" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>699</v>
+        <v>705</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -3959,10 +3977,10 @@
         <v>41</v>
       </c>
       <c r="C40" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>700</v>
+        <v>706</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -3973,10 +3991,10 @@
         <v>42</v>
       </c>
       <c r="C41" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>701</v>
+        <v>707</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -3987,10 +4005,10 @@
         <v>43</v>
       </c>
       <c r="C42" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>702</v>
+        <v>708</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -4001,10 +4019,10 @@
         <v>44</v>
       </c>
       <c r="C43" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>703</v>
+        <v>709</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -4015,10 +4033,10 @@
         <v>45</v>
       </c>
       <c r="C44" t="s">
-        <v>389</v>
+        <v>395</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>704</v>
+        <v>710</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -4029,10 +4047,10 @@
         <v>46</v>
       </c>
       <c r="C45" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>705</v>
+        <v>711</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -4043,10 +4061,10 @@
         <v>47</v>
       </c>
       <c r="C46" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>706</v>
+        <v>712</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -4057,10 +4075,10 @@
         <v>48</v>
       </c>
       <c r="C47" t="s">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>707</v>
+        <v>713</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -4071,10 +4089,10 @@
         <v>49</v>
       </c>
       <c r="C48" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>708</v>
+        <v>714</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -4085,10 +4103,10 @@
         <v>50</v>
       </c>
       <c r="C49" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>709</v>
+        <v>715</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -4099,10 +4117,10 @@
         <v>51</v>
       </c>
       <c r="C50" t="s">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>710</v>
+        <v>716</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -4113,10 +4131,10 @@
         <v>52</v>
       </c>
       <c r="C51" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>711</v>
+        <v>717</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -4127,10 +4145,10 @@
         <v>53</v>
       </c>
       <c r="C52" t="s">
-        <v>397</v>
+        <v>403</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>712</v>
+        <v>718</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -4141,10 +4159,10 @@
         <v>54</v>
       </c>
       <c r="C53" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -4155,10 +4173,10 @@
         <v>55</v>
       </c>
       <c r="C54" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>714</v>
+        <v>720</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -4169,10 +4187,10 @@
         <v>56</v>
       </c>
       <c r="C55" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>715</v>
+        <v>721</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -4183,10 +4201,10 @@
         <v>57</v>
       </c>
       <c r="C56" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>716</v>
+        <v>722</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -4197,10 +4215,10 @@
         <v>58</v>
       </c>
       <c r="C57" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>717</v>
+        <v>723</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -4211,10 +4229,10 @@
         <v>59</v>
       </c>
       <c r="C58" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>718</v>
+        <v>724</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -4225,10 +4243,10 @@
         <v>60</v>
       </c>
       <c r="C59" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>719</v>
+        <v>725</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -4239,10 +4257,10 @@
         <v>61</v>
       </c>
       <c r="C60" t="s">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>720</v>
+        <v>726</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -4253,10 +4271,10 @@
         <v>62</v>
       </c>
       <c r="C61" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>721</v>
+        <v>727</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -4267,10 +4285,10 @@
         <v>63</v>
       </c>
       <c r="C62" t="s">
-        <v>406</v>
+        <v>412</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>722</v>
+        <v>728</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -4281,10 +4299,10 @@
         <v>64</v>
       </c>
       <c r="C63" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>723</v>
+        <v>729</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -4295,10 +4313,10 @@
         <v>65</v>
       </c>
       <c r="C64" t="s">
-        <v>408</v>
+        <v>414</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>724</v>
+        <v>730</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -4309,10 +4327,10 @@
         <v>66</v>
       </c>
       <c r="C65" t="s">
-        <v>408</v>
+        <v>414</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>724</v>
+        <v>730</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -4323,10 +4341,10 @@
         <v>67</v>
       </c>
       <c r="C66" t="s">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>725</v>
+        <v>731</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -4337,10 +4355,10 @@
         <v>68</v>
       </c>
       <c r="C67" t="s">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>725</v>
+        <v>731</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -4351,10 +4369,10 @@
         <v>69</v>
       </c>
       <c r="C68" t="s">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>726</v>
+        <v>732</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -4365,10 +4383,10 @@
         <v>70</v>
       </c>
       <c r="C69" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>727</v>
+        <v>733</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -4379,10 +4397,10 @@
         <v>71</v>
       </c>
       <c r="C70" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>728</v>
+        <v>734</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -4393,10 +4411,10 @@
         <v>72</v>
       </c>
       <c r="C71" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>729</v>
+        <v>735</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -4407,10 +4425,10 @@
         <v>73</v>
       </c>
       <c r="C72" t="s">
-        <v>413</v>
+        <v>419</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>730</v>
+        <v>736</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -4421,10 +4439,10 @@
         <v>74</v>
       </c>
       <c r="C73" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>731</v>
+        <v>737</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -4435,10 +4453,10 @@
         <v>75</v>
       </c>
       <c r="C74" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>732</v>
+        <v>738</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -4449,10 +4467,10 @@
         <v>76</v>
       </c>
       <c r="C75" t="s">
-        <v>416</v>
+        <v>422</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>733</v>
+        <v>739</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -4463,10 +4481,10 @@
         <v>77</v>
       </c>
       <c r="C76" t="s">
-        <v>417</v>
+        <v>423</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>734</v>
+        <v>740</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -4477,10 +4495,10 @@
         <v>78</v>
       </c>
       <c r="C77" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>735</v>
+        <v>741</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -4491,10 +4509,10 @@
         <v>79</v>
       </c>
       <c r="C78" t="s">
-        <v>419</v>
+        <v>425</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>736</v>
+        <v>742</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -4505,10 +4523,10 @@
         <v>80</v>
       </c>
       <c r="C79" t="s">
-        <v>420</v>
+        <v>426</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>737</v>
+        <v>743</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -4519,10 +4537,10 @@
         <v>81</v>
       </c>
       <c r="C80" t="s">
-        <v>421</v>
+        <v>427</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>738</v>
+        <v>744</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -4533,10 +4551,10 @@
         <v>82</v>
       </c>
       <c r="C81" t="s">
-        <v>422</v>
+        <v>428</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>739</v>
+        <v>745</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -4547,10 +4565,10 @@
         <v>83</v>
       </c>
       <c r="C82" t="s">
-        <v>423</v>
+        <v>429</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>740</v>
+        <v>746</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -4561,10 +4579,10 @@
         <v>84</v>
       </c>
       <c r="C83" t="s">
-        <v>424</v>
+        <v>430</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>741</v>
+        <v>747</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -4575,10 +4593,10 @@
         <v>85</v>
       </c>
       <c r="C84" t="s">
-        <v>425</v>
+        <v>431</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>742</v>
+        <v>748</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -4589,10 +4607,10 @@
         <v>86</v>
       </c>
       <c r="C85" t="s">
-        <v>426</v>
+        <v>432</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>743</v>
+        <v>749</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -4603,10 +4621,10 @@
         <v>87</v>
       </c>
       <c r="C86" t="s">
-        <v>427</v>
+        <v>433</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>744</v>
+        <v>750</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -4617,10 +4635,10 @@
         <v>88</v>
       </c>
       <c r="C87" t="s">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>745</v>
+        <v>751</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -4631,10 +4649,10 @@
         <v>89</v>
       </c>
       <c r="C88" t="s">
-        <v>429</v>
+        <v>435</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>746</v>
+        <v>752</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -4645,10 +4663,10 @@
         <v>90</v>
       </c>
       <c r="C89" t="s">
-        <v>430</v>
+        <v>436</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>747</v>
+        <v>753</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -4659,10 +4677,10 @@
         <v>91</v>
       </c>
       <c r="C90" t="s">
-        <v>431</v>
+        <v>437</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>748</v>
+        <v>754</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -4673,10 +4691,10 @@
         <v>92</v>
       </c>
       <c r="C91" t="s">
-        <v>432</v>
+        <v>438</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>749</v>
+        <v>755</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -4687,10 +4705,10 @@
         <v>93</v>
       </c>
       <c r="C92" t="s">
-        <v>433</v>
+        <v>439</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>750</v>
+        <v>756</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -4701,10 +4719,10 @@
         <v>94</v>
       </c>
       <c r="C93" t="s">
-        <v>434</v>
+        <v>440</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>751</v>
+        <v>757</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -4715,10 +4733,10 @@
         <v>95</v>
       </c>
       <c r="C94" t="s">
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>752</v>
+        <v>758</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -4729,10 +4747,10 @@
         <v>96</v>
       </c>
       <c r="C95" t="s">
-        <v>436</v>
+        <v>442</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>753</v>
+        <v>759</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -4743,10 +4761,10 @@
         <v>97</v>
       </c>
       <c r="C96" t="s">
-        <v>437</v>
+        <v>443</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>754</v>
+        <v>760</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -4757,10 +4775,10 @@
         <v>98</v>
       </c>
       <c r="C97" t="s">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>755</v>
+        <v>761</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -4771,10 +4789,10 @@
         <v>99</v>
       </c>
       <c r="C98" t="s">
-        <v>439</v>
+        <v>445</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>756</v>
+        <v>762</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -4785,10 +4803,10 @@
         <v>100</v>
       </c>
       <c r="C99" t="s">
-        <v>440</v>
+        <v>446</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>757</v>
+        <v>763</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -4799,10 +4817,10 @@
         <v>101</v>
       </c>
       <c r="C100" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>758</v>
+        <v>764</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -4813,10 +4831,10 @@
         <v>102</v>
       </c>
       <c r="C101" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>759</v>
+        <v>765</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -4827,10 +4845,10 @@
         <v>103</v>
       </c>
       <c r="C102" t="s">
-        <v>443</v>
+        <v>449</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>760</v>
+        <v>766</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -4841,10 +4859,10 @@
         <v>104</v>
       </c>
       <c r="C103" t="s">
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>752</v>
+        <v>758</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -4855,10 +4873,10 @@
         <v>105</v>
       </c>
       <c r="C104" t="s">
-        <v>427</v>
+        <v>433</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>761</v>
+        <v>767</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -4869,10 +4887,10 @@
         <v>106</v>
       </c>
       <c r="C105" t="s">
-        <v>444</v>
+        <v>450</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>762</v>
+        <v>768</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -4883,10 +4901,10 @@
         <v>107</v>
       </c>
       <c r="C106" t="s">
-        <v>445</v>
+        <v>451</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>763</v>
+        <v>769</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -4897,10 +4915,10 @@
         <v>108</v>
       </c>
       <c r="C107" t="s">
-        <v>446</v>
+        <v>452</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>764</v>
+        <v>770</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -4911,10 +4929,10 @@
         <v>109</v>
       </c>
       <c r="C108" t="s">
-        <v>447</v>
+        <v>453</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>765</v>
+        <v>771</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -4925,10 +4943,10 @@
         <v>110</v>
       </c>
       <c r="C109" t="s">
-        <v>448</v>
+        <v>454</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>766</v>
+        <v>772</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -4939,10 +4957,10 @@
         <v>111</v>
       </c>
       <c r="C110" t="s">
-        <v>449</v>
+        <v>455</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>767</v>
+        <v>773</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -4953,10 +4971,10 @@
         <v>112</v>
       </c>
       <c r="C111" t="s">
-        <v>450</v>
+        <v>456</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>768</v>
+        <v>774</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -4967,10 +4985,10 @@
         <v>113</v>
       </c>
       <c r="C112" t="s">
-        <v>451</v>
+        <v>457</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>769</v>
+        <v>775</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -4981,10 +4999,10 @@
         <v>114</v>
       </c>
       <c r="C113" t="s">
-        <v>452</v>
+        <v>458</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>770</v>
+        <v>776</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -4995,10 +5013,10 @@
         <v>115</v>
       </c>
       <c r="C114" t="s">
-        <v>453</v>
+        <v>459</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>771</v>
+        <v>777</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -5009,10 +5027,10 @@
         <v>116</v>
       </c>
       <c r="C115" t="s">
-        <v>454</v>
+        <v>460</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>772</v>
+        <v>778</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -5023,10 +5041,10 @@
         <v>117</v>
       </c>
       <c r="C116" t="s">
-        <v>455</v>
+        <v>461</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>773</v>
+        <v>779</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -5037,10 +5055,10 @@
         <v>118</v>
       </c>
       <c r="C117" t="s">
-        <v>456</v>
+        <v>462</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>774</v>
+        <v>780</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -5051,10 +5069,10 @@
         <v>119</v>
       </c>
       <c r="C118" t="s">
-        <v>457</v>
+        <v>463</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>775</v>
+        <v>781</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -5065,10 +5083,10 @@
         <v>120</v>
       </c>
       <c r="C119" t="s">
-        <v>458</v>
+        <v>464</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>776</v>
+        <v>782</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -5079,10 +5097,10 @@
         <v>121</v>
       </c>
       <c r="C120" t="s">
-        <v>451</v>
+        <v>457</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>777</v>
+        <v>783</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -5093,10 +5111,10 @@
         <v>122</v>
       </c>
       <c r="C121" t="s">
-        <v>459</v>
+        <v>465</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>778</v>
+        <v>784</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -5107,10 +5125,10 @@
         <v>123</v>
       </c>
       <c r="C122" t="s">
-        <v>460</v>
+        <v>466</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>779</v>
+        <v>785</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -5121,10 +5139,10 @@
         <v>124</v>
       </c>
       <c r="C123" t="s">
-        <v>461</v>
+        <v>467</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>780</v>
+        <v>786</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -5135,10 +5153,10 @@
         <v>125</v>
       </c>
       <c r="C124" t="s">
-        <v>462</v>
+        <v>468</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>781</v>
+        <v>787</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -5149,10 +5167,10 @@
         <v>126</v>
       </c>
       <c r="C125" t="s">
-        <v>463</v>
+        <v>469</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>782</v>
+        <v>788</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -5163,10 +5181,10 @@
         <v>127</v>
       </c>
       <c r="C126" t="s">
-        <v>464</v>
+        <v>470</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>783</v>
+        <v>789</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -5177,10 +5195,10 @@
         <v>128</v>
       </c>
       <c r="C127" t="s">
-        <v>465</v>
+        <v>471</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>784</v>
+        <v>790</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -5191,10 +5209,10 @@
         <v>129</v>
       </c>
       <c r="C128" t="s">
-        <v>466</v>
+        <v>472</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>785</v>
+        <v>791</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -5205,10 +5223,10 @@
         <v>130</v>
       </c>
       <c r="C129" t="s">
-        <v>467</v>
+        <v>473</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>786</v>
+        <v>792</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -5219,10 +5237,10 @@
         <v>131</v>
       </c>
       <c r="C130" t="s">
-        <v>468</v>
+        <v>474</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>787</v>
+        <v>793</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -5233,10 +5251,10 @@
         <v>132</v>
       </c>
       <c r="C131" t="s">
-        <v>469</v>
+        <v>475</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>788</v>
+        <v>794</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -5247,10 +5265,10 @@
         <v>133</v>
       </c>
       <c r="C132" t="s">
-        <v>470</v>
+        <v>476</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>789</v>
+        <v>795</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -5261,10 +5279,10 @@
         <v>134</v>
       </c>
       <c r="C133" t="s">
-        <v>471</v>
+        <v>477</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>790</v>
+        <v>796</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -5275,10 +5293,10 @@
         <v>135</v>
       </c>
       <c r="C134" t="s">
-        <v>472</v>
+        <v>478</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>791</v>
+        <v>797</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -5289,10 +5307,10 @@
         <v>136</v>
       </c>
       <c r="C135" t="s">
-        <v>473</v>
+        <v>479</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>792</v>
+        <v>798</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -5303,10 +5321,10 @@
         <v>137</v>
       </c>
       <c r="C136" t="s">
-        <v>474</v>
+        <v>480</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>793</v>
+        <v>799</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -5317,10 +5335,10 @@
         <v>138</v>
       </c>
       <c r="C137" t="s">
-        <v>475</v>
+        <v>481</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>794</v>
+        <v>800</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -5331,10 +5349,10 @@
         <v>139</v>
       </c>
       <c r="C138" t="s">
-        <v>476</v>
+        <v>482</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>795</v>
+        <v>801</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -5345,10 +5363,10 @@
         <v>140</v>
       </c>
       <c r="C139" t="s">
-        <v>477</v>
+        <v>483</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>796</v>
+        <v>802</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -5359,10 +5377,10 @@
         <v>141</v>
       </c>
       <c r="C140" t="s">
-        <v>478</v>
+        <v>484</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>797</v>
+        <v>803</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -5373,10 +5391,10 @@
         <v>142</v>
       </c>
       <c r="C141" t="s">
-        <v>479</v>
+        <v>485</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>798</v>
+        <v>804</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -5387,10 +5405,10 @@
         <v>143</v>
       </c>
       <c r="C142" t="s">
-        <v>480</v>
+        <v>486</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>799</v>
+        <v>805</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -5401,10 +5419,10 @@
         <v>144</v>
       </c>
       <c r="C143" t="s">
-        <v>481</v>
+        <v>487</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>800</v>
+        <v>806</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -5415,10 +5433,10 @@
         <v>145</v>
       </c>
       <c r="C144" t="s">
-        <v>482</v>
+        <v>488</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>801</v>
+        <v>807</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -5429,10 +5447,10 @@
         <v>146</v>
       </c>
       <c r="C145" t="s">
-        <v>483</v>
+        <v>489</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>802</v>
+        <v>808</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -5440,13 +5458,13 @@
         <v>145</v>
       </c>
       <c r="B146" t="s">
-        <v>52</v>
+        <v>147</v>
       </c>
       <c r="C146" t="s">
-        <v>484</v>
+        <v>490</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>803</v>
+        <v>809</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -5454,13 +5472,13 @@
         <v>146</v>
       </c>
       <c r="B147" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C147" t="s">
-        <v>485</v>
+        <v>491</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>804</v>
+        <v>810</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -5468,13 +5486,13 @@
         <v>147</v>
       </c>
       <c r="B148" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C148" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>805</v>
+        <v>811</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -5482,13 +5500,13 @@
         <v>148</v>
       </c>
       <c r="B149" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C149" t="s">
-        <v>486</v>
+        <v>492</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>806</v>
+        <v>812</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -5496,13 +5514,13 @@
         <v>149</v>
       </c>
       <c r="B150" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C150" t="s">
-        <v>487</v>
+        <v>493</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>807</v>
+        <v>813</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -5510,13 +5528,13 @@
         <v>150</v>
       </c>
       <c r="B151" t="s">
-        <v>52</v>
+        <v>152</v>
       </c>
       <c r="C151" t="s">
-        <v>488</v>
+        <v>494</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>808</v>
+        <v>814</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -5524,13 +5542,13 @@
         <v>151</v>
       </c>
       <c r="B152" t="s">
-        <v>52</v>
+        <v>153</v>
       </c>
       <c r="C152" t="s">
-        <v>489</v>
+        <v>495</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>809</v>
+        <v>815</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -5538,13 +5556,13 @@
         <v>152</v>
       </c>
       <c r="B153" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="C153" t="s">
-        <v>490</v>
+        <v>496</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>810</v>
+        <v>816</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -5552,13 +5570,13 @@
         <v>153</v>
       </c>
       <c r="B154" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="C154" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>811</v>
+        <v>817</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -5566,13 +5584,13 @@
         <v>154</v>
       </c>
       <c r="B155" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="C155" t="s">
-        <v>492</v>
+        <v>498</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>812</v>
+        <v>818</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -5580,13 +5598,13 @@
         <v>155</v>
       </c>
       <c r="B156" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C156" t="s">
-        <v>493</v>
+        <v>499</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>813</v>
+        <v>819</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -5594,13 +5612,13 @@
         <v>156</v>
       </c>
       <c r="B157" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="C157" t="s">
-        <v>494</v>
+        <v>500</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>814</v>
+        <v>820</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -5608,13 +5626,13 @@
         <v>158</v>
       </c>
       <c r="B158" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="C158" t="s">
-        <v>495</v>
+        <v>501</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>815</v>
+        <v>821</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -5622,13 +5640,13 @@
         <v>159</v>
       </c>
       <c r="B159" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="C159" t="s">
-        <v>496</v>
+        <v>502</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>816</v>
+        <v>822</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -5636,13 +5654,13 @@
         <v>160</v>
       </c>
       <c r="B160" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="C160" t="s">
-        <v>497</v>
+        <v>503</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>817</v>
+        <v>823</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -5650,13 +5668,13 @@
         <v>161</v>
       </c>
       <c r="B161" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C161" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>818</v>
+        <v>824</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -5664,13 +5682,13 @@
         <v>162</v>
       </c>
       <c r="B162" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="C162" t="s">
-        <v>498</v>
+        <v>504</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>819</v>
+        <v>825</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -5678,13 +5696,13 @@
         <v>163</v>
       </c>
       <c r="B163" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="C163" t="s">
-        <v>499</v>
+        <v>505</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>820</v>
+        <v>826</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -5692,13 +5710,13 @@
         <v>164</v>
       </c>
       <c r="B164" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="C164" t="s">
-        <v>500</v>
+        <v>506</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>821</v>
+        <v>827</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -5706,13 +5724,13 @@
         <v>165</v>
       </c>
       <c r="B165" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="C165" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>822</v>
+        <v>828</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -5720,13 +5738,13 @@
         <v>166</v>
       </c>
       <c r="B166" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="C166" t="s">
-        <v>502</v>
+        <v>508</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>823</v>
+        <v>829</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -5734,13 +5752,13 @@
         <v>167</v>
       </c>
       <c r="B167" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="C167" t="s">
-        <v>503</v>
+        <v>509</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>824</v>
+        <v>830</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -5748,13 +5766,13 @@
         <v>168</v>
       </c>
       <c r="B168" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="C168" t="s">
-        <v>504</v>
+        <v>510</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>825</v>
+        <v>831</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -5762,13 +5780,13 @@
         <v>169</v>
       </c>
       <c r="B169" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="C169" t="s">
-        <v>505</v>
+        <v>511</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>826</v>
+        <v>832</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -5776,13 +5794,13 @@
         <v>170</v>
       </c>
       <c r="B170" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="C170" t="s">
-        <v>506</v>
+        <v>512</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>827</v>
+        <v>833</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -5790,13 +5808,13 @@
         <v>171</v>
       </c>
       <c r="B171" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="C171" t="s">
-        <v>492</v>
+        <v>498</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>828</v>
+        <v>834</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -5804,13 +5822,13 @@
         <v>172</v>
       </c>
       <c r="B172" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="C172" t="s">
-        <v>507</v>
+        <v>513</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>829</v>
+        <v>835</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -5818,13 +5836,13 @@
         <v>173</v>
       </c>
       <c r="B173" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="C173" t="s">
-        <v>508</v>
+        <v>514</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>830</v>
+        <v>836</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -5832,13 +5850,13 @@
         <v>174</v>
       </c>
       <c r="B174" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="C174" t="s">
-        <v>509</v>
+        <v>515</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>831</v>
+        <v>837</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -5846,13 +5864,13 @@
         <v>175</v>
       </c>
       <c r="B175" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="C175" t="s">
-        <v>510</v>
+        <v>516</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>832</v>
+        <v>838</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -5860,13 +5878,13 @@
         <v>176</v>
       </c>
       <c r="B176" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="C176" t="s">
-        <v>511</v>
+        <v>517</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>833</v>
+        <v>839</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -5874,13 +5892,13 @@
         <v>177</v>
       </c>
       <c r="B177" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="C177" t="s">
-        <v>512</v>
+        <v>518</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>834</v>
+        <v>840</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -5888,13 +5906,13 @@
         <v>178</v>
       </c>
       <c r="B178" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="C178" t="s">
-        <v>513</v>
+        <v>519</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>835</v>
+        <v>841</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -5902,13 +5920,13 @@
         <v>179</v>
       </c>
       <c r="B179" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="C179" t="s">
-        <v>514</v>
+        <v>520</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>836</v>
+        <v>842</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -5916,13 +5934,13 @@
         <v>180</v>
       </c>
       <c r="B180" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="C180" t="s">
-        <v>514</v>
+        <v>520</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>837</v>
+        <v>843</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -5930,13 +5948,13 @@
         <v>181</v>
       </c>
       <c r="B181" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="C181" t="s">
-        <v>515</v>
+        <v>521</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>838</v>
+        <v>844</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -5944,13 +5962,13 @@
         <v>182</v>
       </c>
       <c r="B182" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="C182" t="s">
-        <v>516</v>
+        <v>522</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>839</v>
+        <v>845</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -5958,13 +5976,13 @@
         <v>183</v>
       </c>
       <c r="B183" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="C183" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>840</v>
+        <v>846</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -5972,13 +5990,13 @@
         <v>184</v>
       </c>
       <c r="B184" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="C184" t="s">
-        <v>518</v>
+        <v>524</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>841</v>
+        <v>847</v>
       </c>
     </row>
     <row r="185" spans="1:4">
@@ -5986,13 +6004,13 @@
         <v>185</v>
       </c>
       <c r="B185" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="C185" t="s">
-        <v>519</v>
+        <v>525</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>842</v>
+        <v>848</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -6000,13 +6018,13 @@
         <v>186</v>
       </c>
       <c r="B186" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="C186" t="s">
-        <v>520</v>
+        <v>526</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>843</v>
+        <v>849</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -6014,13 +6032,13 @@
         <v>187</v>
       </c>
       <c r="B187" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="C187" t="s">
-        <v>521</v>
+        <v>527</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>844</v>
+        <v>850</v>
       </c>
     </row>
     <row r="188" spans="1:4">
@@ -6028,13 +6046,13 @@
         <v>188</v>
       </c>
       <c r="B188" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="C188" t="s">
-        <v>522</v>
+        <v>528</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>845</v>
+        <v>851</v>
       </c>
     </row>
     <row r="189" spans="1:4">
@@ -6042,13 +6060,13 @@
         <v>189</v>
       </c>
       <c r="B189" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="C189" t="s">
-        <v>523</v>
+        <v>529</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>846</v>
+        <v>852</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -6056,13 +6074,13 @@
         <v>191</v>
       </c>
       <c r="B190" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="C190" t="s">
-        <v>524</v>
+        <v>530</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>847</v>
+        <v>853</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -6070,13 +6088,13 @@
         <v>192</v>
       </c>
       <c r="B191" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="C191" t="s">
-        <v>525</v>
+        <v>531</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>848</v>
+        <v>854</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -6084,13 +6102,13 @@
         <v>193</v>
       </c>
       <c r="B192" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="C192" t="s">
-        <v>526</v>
+        <v>532</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>849</v>
+        <v>855</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -6098,13 +6116,13 @@
         <v>194</v>
       </c>
       <c r="B193" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="C193" t="s">
-        <v>527</v>
+        <v>533</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>850</v>
+        <v>856</v>
       </c>
     </row>
     <row r="194" spans="1:4">
@@ -6112,13 +6130,13 @@
         <v>195</v>
       </c>
       <c r="B194" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="C194" t="s">
-        <v>528</v>
+        <v>534</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>851</v>
+        <v>857</v>
       </c>
     </row>
     <row r="195" spans="1:4">
@@ -6126,13 +6144,13 @@
         <v>196</v>
       </c>
       <c r="B195" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="C195" t="s">
-        <v>529</v>
+        <v>535</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>852</v>
+        <v>858</v>
       </c>
     </row>
     <row r="196" spans="1:4">
@@ -6140,13 +6158,13 @@
         <v>197</v>
       </c>
       <c r="B196" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="C196" t="s">
-        <v>530</v>
+        <v>536</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>853</v>
+        <v>859</v>
       </c>
     </row>
     <row r="197" spans="1:4">
@@ -6154,13 +6172,13 @@
         <v>198</v>
       </c>
       <c r="B197" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="C197" t="s">
-        <v>531</v>
+        <v>537</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>854</v>
+        <v>860</v>
       </c>
     </row>
     <row r="198" spans="1:4">
@@ -6168,13 +6186,13 @@
         <v>199</v>
       </c>
       <c r="B198" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="C198" t="s">
-        <v>532</v>
+        <v>538</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>855</v>
+        <v>861</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -6182,13 +6200,13 @@
         <v>200</v>
       </c>
       <c r="B199" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="C199" t="s">
-        <v>533</v>
+        <v>539</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>856</v>
+        <v>862</v>
       </c>
     </row>
     <row r="200" spans="1:4">
@@ -6196,13 +6214,13 @@
         <v>201</v>
       </c>
       <c r="B200" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="C200" t="s">
-        <v>534</v>
+        <v>540</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>857</v>
+        <v>863</v>
       </c>
     </row>
     <row r="201" spans="1:4">
@@ -6210,13 +6228,13 @@
         <v>202</v>
       </c>
       <c r="B201" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="C201" t="s">
-        <v>531</v>
+        <v>537</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>854</v>
+        <v>860</v>
       </c>
     </row>
     <row r="202" spans="1:4">
@@ -6224,13 +6242,13 @@
         <v>203</v>
       </c>
       <c r="B202" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="C202" t="s">
-        <v>535</v>
+        <v>541</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>858</v>
+        <v>864</v>
       </c>
     </row>
     <row r="203" spans="1:4">
@@ -6238,13 +6256,13 @@
         <v>204</v>
       </c>
       <c r="B203" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="C203" t="s">
-        <v>536</v>
+        <v>542</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>859</v>
+        <v>865</v>
       </c>
     </row>
     <row r="204" spans="1:4">
@@ -6252,13 +6270,13 @@
         <v>205</v>
       </c>
       <c r="B204" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="C204" t="s">
-        <v>537</v>
+        <v>543</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>860</v>
+        <v>866</v>
       </c>
     </row>
     <row r="205" spans="1:4">
@@ -6266,13 +6284,13 @@
         <v>206</v>
       </c>
       <c r="B205" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="C205" t="s">
-        <v>538</v>
+        <v>544</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>861</v>
+        <v>867</v>
       </c>
     </row>
     <row r="206" spans="1:4">
@@ -6280,13 +6298,13 @@
         <v>207</v>
       </c>
       <c r="B206" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="C206" t="s">
-        <v>539</v>
+        <v>545</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>862</v>
+        <v>868</v>
       </c>
     </row>
     <row r="207" spans="1:4">
@@ -6294,13 +6312,13 @@
         <v>208</v>
       </c>
       <c r="B207" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="C207" t="s">
-        <v>540</v>
+        <v>546</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>863</v>
+        <v>869</v>
       </c>
     </row>
     <row r="208" spans="1:4">
@@ -6308,13 +6326,13 @@
         <v>209</v>
       </c>
       <c r="B208" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="C208" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>864</v>
+        <v>870</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -6322,13 +6340,13 @@
         <v>210</v>
       </c>
       <c r="B209" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="C209" t="s">
-        <v>539</v>
+        <v>545</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>865</v>
+        <v>871</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -6336,13 +6354,13 @@
         <v>211</v>
       </c>
       <c r="B210" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="C210" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>866</v>
+        <v>872</v>
       </c>
     </row>
     <row r="211" spans="1:4">
@@ -6350,13 +6368,13 @@
         <v>212</v>
       </c>
       <c r="B211" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="C211" t="s">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>867</v>
+        <v>873</v>
       </c>
     </row>
     <row r="212" spans="1:4">
@@ -6364,13 +6382,13 @@
         <v>213</v>
       </c>
       <c r="B212" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="C212" t="s">
-        <v>543</v>
+        <v>549</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>868</v>
+        <v>874</v>
       </c>
     </row>
     <row r="213" spans="1:4">
@@ -6378,13 +6396,13 @@
         <v>214</v>
       </c>
       <c r="B213" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="C213" t="s">
-        <v>544</v>
+        <v>550</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>869</v>
+        <v>875</v>
       </c>
     </row>
     <row r="214" spans="1:4">
@@ -6392,13 +6410,13 @@
         <v>215</v>
       </c>
       <c r="B214" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="C214" t="s">
-        <v>545</v>
+        <v>551</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>870</v>
+        <v>876</v>
       </c>
     </row>
     <row r="215" spans="1:4">
@@ -6406,13 +6424,13 @@
         <v>216</v>
       </c>
       <c r="B215" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="C215" t="s">
-        <v>546</v>
+        <v>552</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>871</v>
+        <v>877</v>
       </c>
     </row>
     <row r="216" spans="1:4">
@@ -6420,13 +6438,13 @@
         <v>217</v>
       </c>
       <c r="B216" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="C216" t="s">
-        <v>547</v>
+        <v>553</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>872</v>
+        <v>878</v>
       </c>
     </row>
     <row r="217" spans="1:4">
@@ -6434,13 +6452,13 @@
         <v>218</v>
       </c>
       <c r="B217" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="C217" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>873</v>
+        <v>879</v>
       </c>
     </row>
     <row r="218" spans="1:4">
@@ -6448,13 +6466,13 @@
         <v>219</v>
       </c>
       <c r="B218" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="C218" t="s">
-        <v>549</v>
+        <v>555</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>874</v>
+        <v>880</v>
       </c>
     </row>
     <row r="219" spans="1:4">
@@ -6462,13 +6480,13 @@
         <v>220</v>
       </c>
       <c r="B219" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="C219" t="s">
-        <v>550</v>
+        <v>556</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>875</v>
+        <v>881</v>
       </c>
     </row>
     <row r="220" spans="1:4">
@@ -6476,13 +6494,13 @@
         <v>221</v>
       </c>
       <c r="B220" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="C220" t="s">
-        <v>551</v>
+        <v>557</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>876</v>
+        <v>882</v>
       </c>
     </row>
     <row r="221" spans="1:4">
@@ -6490,13 +6508,13 @@
         <v>222</v>
       </c>
       <c r="B221" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="C221" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>877</v>
+        <v>883</v>
       </c>
     </row>
     <row r="222" spans="1:4">
@@ -6504,13 +6522,13 @@
         <v>223</v>
       </c>
       <c r="B222" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="C222" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>878</v>
+        <v>884</v>
       </c>
     </row>
     <row r="223" spans="1:4">
@@ -6518,13 +6536,13 @@
         <v>224</v>
       </c>
       <c r="B223" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="C223" t="s">
-        <v>554</v>
+        <v>560</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>879</v>
+        <v>885</v>
       </c>
     </row>
     <row r="224" spans="1:4">
@@ -6532,13 +6550,13 @@
         <v>225</v>
       </c>
       <c r="B224" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="C224" t="s">
-        <v>555</v>
+        <v>561</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>880</v>
+        <v>886</v>
       </c>
     </row>
     <row r="225" spans="1:4">
@@ -6546,13 +6564,13 @@
         <v>226</v>
       </c>
       <c r="B225" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="C225" t="s">
-        <v>556</v>
+        <v>562</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>881</v>
+        <v>887</v>
       </c>
     </row>
     <row r="226" spans="1:4">
@@ -6560,13 +6578,13 @@
         <v>227</v>
       </c>
       <c r="B226" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="C226" t="s">
-        <v>557</v>
+        <v>563</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>882</v>
+        <v>888</v>
       </c>
     </row>
     <row r="227" spans="1:4">
@@ -6574,13 +6592,13 @@
         <v>228</v>
       </c>
       <c r="B227" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="C227" t="s">
-        <v>558</v>
+        <v>564</v>
       </c>
       <c r="D227" s="2" t="s">
-        <v>883</v>
+        <v>889</v>
       </c>
     </row>
     <row r="228" spans="1:4">
@@ -6588,13 +6606,13 @@
         <v>229</v>
       </c>
       <c r="B228" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="C228" t="s">
-        <v>559</v>
+        <v>565</v>
       </c>
       <c r="D228" s="2" t="s">
-        <v>884</v>
+        <v>890</v>
       </c>
     </row>
     <row r="229" spans="1:4">
@@ -6602,13 +6620,13 @@
         <v>230</v>
       </c>
       <c r="B229" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="C229" t="s">
-        <v>560</v>
+        <v>566</v>
       </c>
       <c r="D229" s="2" t="s">
-        <v>885</v>
+        <v>891</v>
       </c>
     </row>
     <row r="230" spans="1:4">
@@ -6616,13 +6634,13 @@
         <v>231</v>
       </c>
       <c r="B230" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="C230" t="s">
-        <v>561</v>
+        <v>567</v>
       </c>
       <c r="D230" s="2" t="s">
-        <v>886</v>
+        <v>892</v>
       </c>
     </row>
     <row r="231" spans="1:4">
@@ -6630,13 +6648,13 @@
         <v>232</v>
       </c>
       <c r="B231" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="C231" t="s">
-        <v>562</v>
+        <v>568</v>
       </c>
       <c r="D231" s="2" t="s">
-        <v>887</v>
+        <v>893</v>
       </c>
     </row>
     <row r="232" spans="1:4">
@@ -6644,13 +6662,13 @@
         <v>233</v>
       </c>
       <c r="B232" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="C232" t="s">
-        <v>563</v>
+        <v>569</v>
       </c>
       <c r="D232" s="2" t="s">
-        <v>888</v>
+        <v>894</v>
       </c>
     </row>
     <row r="233" spans="1:4">
@@ -6658,13 +6676,13 @@
         <v>234</v>
       </c>
       <c r="B233" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="C233" t="s">
-        <v>564</v>
+        <v>570</v>
       </c>
       <c r="D233" s="2" t="s">
-        <v>889</v>
+        <v>895</v>
       </c>
     </row>
     <row r="234" spans="1:4">
@@ -6672,13 +6690,13 @@
         <v>235</v>
       </c>
       <c r="B234" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="C234" t="s">
-        <v>565</v>
+        <v>571</v>
       </c>
       <c r="D234" s="2" t="s">
-        <v>890</v>
+        <v>896</v>
       </c>
     </row>
     <row r="235" spans="1:4">
@@ -6689,10 +6707,10 @@
         <v>32</v>
       </c>
       <c r="C235" t="s">
-        <v>566</v>
+        <v>572</v>
       </c>
       <c r="D235" s="2" t="s">
-        <v>891</v>
+        <v>897</v>
       </c>
     </row>
     <row r="236" spans="1:4">
@@ -6700,13 +6718,13 @@
         <v>237</v>
       </c>
       <c r="B236" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="C236" t="s">
-        <v>567</v>
+        <v>573</v>
       </c>
       <c r="D236" s="2" t="s">
-        <v>892</v>
+        <v>898</v>
       </c>
     </row>
     <row r="237" spans="1:4">
@@ -6714,13 +6732,13 @@
         <v>238</v>
       </c>
       <c r="B237" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="C237" t="s">
-        <v>568</v>
+        <v>574</v>
       </c>
       <c r="D237" s="2" t="s">
-        <v>893</v>
+        <v>899</v>
       </c>
     </row>
     <row r="238" spans="1:4">
@@ -6728,13 +6746,13 @@
         <v>240</v>
       </c>
       <c r="B238" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="C238" t="s">
-        <v>569</v>
+        <v>575</v>
       </c>
       <c r="D238" s="2" t="s">
-        <v>894</v>
+        <v>900</v>
       </c>
     </row>
     <row r="239" spans="1:4">
@@ -6742,13 +6760,13 @@
         <v>241</v>
       </c>
       <c r="B239" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="C239" t="s">
-        <v>570</v>
+        <v>576</v>
       </c>
       <c r="D239" s="2" t="s">
-        <v>895</v>
+        <v>901</v>
       </c>
     </row>
     <row r="240" spans="1:4">
@@ -6756,13 +6774,13 @@
         <v>242</v>
       </c>
       <c r="B240" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="C240" t="s">
-        <v>571</v>
+        <v>577</v>
       </c>
       <c r="D240" s="2" t="s">
-        <v>896</v>
+        <v>902</v>
       </c>
     </row>
     <row r="241" spans="1:4">
@@ -6770,13 +6788,13 @@
         <v>243</v>
       </c>
       <c r="B241" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="C241" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
       <c r="D241" s="2" t="s">
-        <v>897</v>
+        <v>903</v>
       </c>
     </row>
     <row r="242" spans="1:4">
@@ -6784,13 +6802,13 @@
         <v>244</v>
       </c>
       <c r="B242" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="C242" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
       <c r="D242" s="2" t="s">
-        <v>898</v>
+        <v>904</v>
       </c>
     </row>
     <row r="243" spans="1:4">
@@ -6798,13 +6816,13 @@
         <v>245</v>
       </c>
       <c r="B243" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="C243" t="s">
-        <v>574</v>
+        <v>580</v>
       </c>
       <c r="D243" s="2" t="s">
-        <v>899</v>
+        <v>905</v>
       </c>
     </row>
     <row r="244" spans="1:4">
@@ -6812,13 +6830,13 @@
         <v>246</v>
       </c>
       <c r="B244" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="C244" t="s">
-        <v>575</v>
+        <v>581</v>
       </c>
       <c r="D244" s="2" t="s">
-        <v>900</v>
+        <v>906</v>
       </c>
     </row>
     <row r="245" spans="1:4">
@@ -6826,13 +6844,13 @@
         <v>247</v>
       </c>
       <c r="B245" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="C245" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="D245" s="2" t="s">
-        <v>901</v>
+        <v>907</v>
       </c>
     </row>
     <row r="246" spans="1:4">
@@ -6840,13 +6858,13 @@
         <v>248</v>
       </c>
       <c r="B246" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="C246" t="s">
-        <v>576</v>
+        <v>582</v>
       </c>
       <c r="D246" s="2" t="s">
-        <v>902</v>
+        <v>908</v>
       </c>
     </row>
     <row r="247" spans="1:4">
@@ -6854,13 +6872,13 @@
         <v>250</v>
       </c>
       <c r="B247" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="C247" t="s">
-        <v>577</v>
+        <v>583</v>
       </c>
       <c r="D247" s="2" t="s">
-        <v>903</v>
+        <v>909</v>
       </c>
     </row>
     <row r="248" spans="1:4">
@@ -6868,13 +6886,13 @@
         <v>251</v>
       </c>
       <c r="B248" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="C248" t="s">
-        <v>578</v>
+        <v>584</v>
       </c>
       <c r="D248" s="2" t="s">
-        <v>904</v>
+        <v>910</v>
       </c>
     </row>
     <row r="249" spans="1:4">
@@ -6882,13 +6900,13 @@
         <v>252</v>
       </c>
       <c r="B249" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="C249" t="s">
-        <v>579</v>
+        <v>585</v>
       </c>
       <c r="D249" s="2" t="s">
-        <v>905</v>
+        <v>911</v>
       </c>
     </row>
     <row r="250" spans="1:4">
@@ -6896,13 +6914,13 @@
         <v>253</v>
       </c>
       <c r="B250" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="C250" t="s">
-        <v>580</v>
+        <v>586</v>
       </c>
       <c r="D250" s="2" t="s">
-        <v>906</v>
+        <v>912</v>
       </c>
     </row>
     <row r="251" spans="1:4">
@@ -6910,13 +6928,13 @@
         <v>254</v>
       </c>
       <c r="B251" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="C251" t="s">
-        <v>581</v>
+        <v>587</v>
       </c>
       <c r="D251" s="2" t="s">
-        <v>907</v>
+        <v>913</v>
       </c>
     </row>
     <row r="252" spans="1:4">
@@ -6924,13 +6942,13 @@
         <v>256</v>
       </c>
       <c r="B252" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="C252" t="s">
-        <v>582</v>
+        <v>588</v>
       </c>
       <c r="D252" s="2" t="s">
-        <v>908</v>
+        <v>914</v>
       </c>
     </row>
     <row r="253" spans="1:4">
@@ -6938,13 +6956,13 @@
         <v>257</v>
       </c>
       <c r="B253" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="C253" t="s">
-        <v>583</v>
+        <v>589</v>
       </c>
       <c r="D253" s="2" t="s">
-        <v>909</v>
+        <v>915</v>
       </c>
     </row>
     <row r="254" spans="1:4">
@@ -6952,13 +6970,13 @@
         <v>259</v>
       </c>
       <c r="B254" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="C254" t="s">
-        <v>584</v>
+        <v>590</v>
       </c>
       <c r="D254" s="2" t="s">
-        <v>910</v>
+        <v>916</v>
       </c>
     </row>
     <row r="255" spans="1:4">
@@ -6966,13 +6984,13 @@
         <v>260</v>
       </c>
       <c r="B255" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="C255" t="s">
-        <v>585</v>
+        <v>591</v>
       </c>
       <c r="D255" s="2" t="s">
-        <v>911</v>
+        <v>917</v>
       </c>
     </row>
     <row r="256" spans="1:4">
@@ -6980,13 +6998,13 @@
         <v>261</v>
       </c>
       <c r="B256" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="C256" t="s">
-        <v>509</v>
+        <v>515</v>
       </c>
       <c r="D256" s="2" t="s">
-        <v>912</v>
+        <v>918</v>
       </c>
     </row>
     <row r="257" spans="1:4">
@@ -6994,13 +7012,13 @@
         <v>262</v>
       </c>
       <c r="B257" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="C257" t="s">
-        <v>586</v>
+        <v>592</v>
       </c>
       <c r="D257" s="2" t="s">
-        <v>913</v>
+        <v>919</v>
       </c>
     </row>
     <row r="258" spans="1:4">
@@ -7008,13 +7026,13 @@
         <v>263</v>
       </c>
       <c r="B258" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="C258" t="s">
-        <v>587</v>
+        <v>593</v>
       </c>
       <c r="D258" s="2" t="s">
-        <v>914</v>
+        <v>920</v>
       </c>
     </row>
     <row r="259" spans="1:4">
@@ -7022,13 +7040,13 @@
         <v>264</v>
       </c>
       <c r="B259" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="C259" t="s">
-        <v>588</v>
+        <v>594</v>
       </c>
       <c r="D259" s="2" t="s">
-        <v>915</v>
+        <v>921</v>
       </c>
     </row>
     <row r="260" spans="1:4">
@@ -7036,13 +7054,13 @@
         <v>265</v>
       </c>
       <c r="B260" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="C260" t="s">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="D260" s="2" t="s">
-        <v>916</v>
+        <v>922</v>
       </c>
     </row>
     <row r="261" spans="1:4">
@@ -7050,13 +7068,13 @@
         <v>266</v>
       </c>
       <c r="B261" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="C261" t="s">
-        <v>589</v>
+        <v>595</v>
       </c>
       <c r="D261" s="2" t="s">
-        <v>917</v>
+        <v>923</v>
       </c>
     </row>
     <row r="262" spans="1:4">
@@ -7064,13 +7082,13 @@
         <v>267</v>
       </c>
       <c r="B262" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="C262" t="s">
-        <v>590</v>
+        <v>596</v>
       </c>
       <c r="D262" s="2" t="s">
-        <v>918</v>
+        <v>924</v>
       </c>
     </row>
     <row r="263" spans="1:4">
@@ -7078,10 +7096,10 @@
         <v>268</v>
       </c>
       <c r="B263" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="D263" s="2" t="s">
-        <v>919</v>
+        <v>925</v>
       </c>
     </row>
     <row r="264" spans="1:4">
@@ -7089,13 +7107,13 @@
         <v>269</v>
       </c>
       <c r="B264" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="C264" t="s">
-        <v>591</v>
+        <v>597</v>
       </c>
       <c r="D264" s="2" t="s">
-        <v>920</v>
+        <v>926</v>
       </c>
     </row>
     <row r="265" spans="1:4">
@@ -7103,13 +7121,13 @@
         <v>270</v>
       </c>
       <c r="B265" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="C265" t="s">
-        <v>592</v>
+        <v>598</v>
       </c>
       <c r="D265" s="2" t="s">
-        <v>921</v>
+        <v>927</v>
       </c>
     </row>
     <row r="266" spans="1:4">
@@ -7117,13 +7135,13 @@
         <v>271</v>
       </c>
       <c r="B266" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="C266" t="s">
-        <v>593</v>
+        <v>599</v>
       </c>
       <c r="D266" s="2" t="s">
-        <v>922</v>
+        <v>928</v>
       </c>
     </row>
     <row r="267" spans="1:4">
@@ -7131,13 +7149,13 @@
         <v>272</v>
       </c>
       <c r="B267" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="C267" t="s">
-        <v>564</v>
+        <v>570</v>
       </c>
       <c r="D267" s="2" t="s">
-        <v>923</v>
+        <v>929</v>
       </c>
     </row>
     <row r="268" spans="1:4">
@@ -7145,13 +7163,13 @@
         <v>273</v>
       </c>
       <c r="B268" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="C268" t="s">
-        <v>594</v>
+        <v>600</v>
       </c>
       <c r="D268" s="2" t="s">
-        <v>924</v>
+        <v>930</v>
       </c>
     </row>
     <row r="269" spans="1:4">
@@ -7159,13 +7177,13 @@
         <v>274</v>
       </c>
       <c r="B269" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="C269" t="s">
-        <v>595</v>
+        <v>601</v>
       </c>
       <c r="D269" s="2" t="s">
-        <v>925</v>
+        <v>931</v>
       </c>
     </row>
     <row r="270" spans="1:4">
@@ -7173,13 +7191,13 @@
         <v>276</v>
       </c>
       <c r="B270" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="C270" t="s">
-        <v>596</v>
+        <v>602</v>
       </c>
       <c r="D270" s="2" t="s">
-        <v>926</v>
+        <v>932</v>
       </c>
     </row>
     <row r="271" spans="1:4">
@@ -7187,13 +7205,13 @@
         <v>277</v>
       </c>
       <c r="B271" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="C271" t="s">
-        <v>597</v>
+        <v>603</v>
       </c>
       <c r="D271" s="2" t="s">
-        <v>927</v>
+        <v>933</v>
       </c>
     </row>
     <row r="272" spans="1:4">
@@ -7201,13 +7219,13 @@
         <v>278</v>
       </c>
       <c r="B272" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="C272" t="s">
-        <v>598</v>
+        <v>604</v>
       </c>
       <c r="D272" s="2" t="s">
-        <v>928</v>
+        <v>934</v>
       </c>
     </row>
     <row r="273" spans="1:4">
@@ -7215,13 +7233,13 @@
         <v>279</v>
       </c>
       <c r="B273" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="C273" t="s">
-        <v>599</v>
+        <v>605</v>
       </c>
       <c r="D273" s="2" t="s">
-        <v>929</v>
+        <v>935</v>
       </c>
     </row>
     <row r="274" spans="1:4">
@@ -7229,13 +7247,13 @@
         <v>280</v>
       </c>
       <c r="B274" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="C274" t="s">
-        <v>600</v>
+        <v>606</v>
       </c>
       <c r="D274" s="2" t="s">
-        <v>930</v>
+        <v>936</v>
       </c>
     </row>
     <row r="275" spans="1:4">
@@ -7243,13 +7261,13 @@
         <v>281</v>
       </c>
       <c r="B275" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="C275" t="s">
-        <v>485</v>
+        <v>491</v>
       </c>
       <c r="D275" s="2" t="s">
-        <v>931</v>
+        <v>937</v>
       </c>
     </row>
     <row r="276" spans="1:4">
@@ -7257,13 +7275,13 @@
         <v>282</v>
       </c>
       <c r="B276" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="C276" t="s">
-        <v>601</v>
+        <v>607</v>
       </c>
       <c r="D276" s="2" t="s">
-        <v>932</v>
+        <v>938</v>
       </c>
     </row>
     <row r="277" spans="1:4">
@@ -7271,13 +7289,13 @@
         <v>283</v>
       </c>
       <c r="B277" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="C277" t="s">
-        <v>602</v>
+        <v>608</v>
       </c>
       <c r="D277" s="2" t="s">
-        <v>933</v>
+        <v>939</v>
       </c>
     </row>
     <row r="278" spans="1:4">
@@ -7285,13 +7303,13 @@
         <v>284</v>
       </c>
       <c r="B278" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C278" t="s">
-        <v>603</v>
+        <v>609</v>
       </c>
       <c r="D278" s="2" t="s">
-        <v>934</v>
+        <v>940</v>
       </c>
     </row>
     <row r="279" spans="1:4">
@@ -7299,13 +7317,13 @@
         <v>285</v>
       </c>
       <c r="B279" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="C279" t="s">
-        <v>604</v>
+        <v>610</v>
       </c>
       <c r="D279" s="2" t="s">
-        <v>935</v>
+        <v>941</v>
       </c>
     </row>
     <row r="280" spans="1:4">
@@ -7313,13 +7331,13 @@
         <v>286</v>
       </c>
       <c r="B280" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="C280" t="s">
-        <v>605</v>
+        <v>611</v>
       </c>
       <c r="D280" s="2" t="s">
-        <v>936</v>
+        <v>942</v>
       </c>
     </row>
     <row r="281" spans="1:4">
@@ -7327,13 +7345,13 @@
         <v>287</v>
       </c>
       <c r="B281" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="C281" t="s">
-        <v>606</v>
+        <v>612</v>
       </c>
       <c r="D281" s="2" t="s">
-        <v>937</v>
+        <v>943</v>
       </c>
     </row>
     <row r="282" spans="1:4">
@@ -7341,13 +7359,13 @@
         <v>288</v>
       </c>
       <c r="B282" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="C282" t="s">
-        <v>607</v>
+        <v>613</v>
       </c>
       <c r="D282" s="2" t="s">
-        <v>938</v>
+        <v>944</v>
       </c>
     </row>
     <row r="283" spans="1:4">
@@ -7355,13 +7373,13 @@
         <v>290</v>
       </c>
       <c r="B283" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="C283" t="s">
-        <v>608</v>
+        <v>614</v>
       </c>
       <c r="D283" s="2" t="s">
-        <v>939</v>
+        <v>945</v>
       </c>
     </row>
     <row r="284" spans="1:4">
@@ -7369,13 +7387,13 @@
         <v>291</v>
       </c>
       <c r="B284" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="C284" t="s">
-        <v>609</v>
+        <v>615</v>
       </c>
       <c r="D284" s="2" t="s">
-        <v>940</v>
+        <v>946</v>
       </c>
     </row>
     <row r="285" spans="1:4">
@@ -7383,13 +7401,13 @@
         <v>292</v>
       </c>
       <c r="B285" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="C285" t="s">
-        <v>610</v>
+        <v>616</v>
       </c>
       <c r="D285" s="2" t="s">
-        <v>941</v>
+        <v>947</v>
       </c>
     </row>
     <row r="286" spans="1:4">
@@ -7397,13 +7415,13 @@
         <v>293</v>
       </c>
       <c r="B286" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="C286" t="s">
-        <v>611</v>
+        <v>617</v>
       </c>
       <c r="D286" s="2" t="s">
-        <v>942</v>
+        <v>948</v>
       </c>
     </row>
     <row r="287" spans="1:4">
@@ -7411,13 +7429,13 @@
         <v>294</v>
       </c>
       <c r="B287" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="C287" t="s">
-        <v>612</v>
+        <v>618</v>
       </c>
       <c r="D287" s="2" t="s">
-        <v>943</v>
+        <v>949</v>
       </c>
     </row>
     <row r="288" spans="1:4">
@@ -7425,13 +7443,13 @@
         <v>295</v>
       </c>
       <c r="B288" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="C288" t="s">
-        <v>613</v>
+        <v>619</v>
       </c>
       <c r="D288" s="2" t="s">
-        <v>944</v>
+        <v>950</v>
       </c>
     </row>
     <row r="289" spans="1:4">
@@ -7439,13 +7457,13 @@
         <v>296</v>
       </c>
       <c r="B289" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="C289" t="s">
-        <v>614</v>
+        <v>620</v>
       </c>
       <c r="D289" s="2" t="s">
-        <v>945</v>
+        <v>951</v>
       </c>
     </row>
     <row r="290" spans="1:4">
@@ -7453,13 +7471,13 @@
         <v>297</v>
       </c>
       <c r="B290" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="C290" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
       <c r="D290" s="2" t="s">
-        <v>946</v>
+        <v>952</v>
       </c>
     </row>
     <row r="291" spans="1:4">
@@ -7467,13 +7485,13 @@
         <v>298</v>
       </c>
       <c r="B291" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="C291" t="s">
-        <v>615</v>
+        <v>621</v>
       </c>
       <c r="D291" s="2" t="s">
-        <v>947</v>
+        <v>953</v>
       </c>
     </row>
     <row r="292" spans="1:4">
@@ -7481,13 +7499,13 @@
         <v>299</v>
       </c>
       <c r="B292" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="C292" t="s">
-        <v>616</v>
+        <v>622</v>
       </c>
       <c r="D292" s="2" t="s">
-        <v>948</v>
+        <v>954</v>
       </c>
     </row>
     <row r="293" spans="1:4">
@@ -7495,13 +7513,13 @@
         <v>300</v>
       </c>
       <c r="B293" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="C293" t="s">
-        <v>589</v>
+        <v>595</v>
       </c>
       <c r="D293" s="2" t="s">
-        <v>949</v>
+        <v>955</v>
       </c>
     </row>
     <row r="294" spans="1:4">
@@ -7509,13 +7527,13 @@
         <v>301</v>
       </c>
       <c r="B294" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="C294" t="s">
-        <v>584</v>
+        <v>590</v>
       </c>
       <c r="D294" s="2" t="s">
-        <v>950</v>
+        <v>956</v>
       </c>
     </row>
     <row r="295" spans="1:4">
@@ -7523,13 +7541,13 @@
         <v>302</v>
       </c>
       <c r="B295" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="C295" t="s">
-        <v>617</v>
+        <v>623</v>
       </c>
       <c r="D295" s="2" t="s">
-        <v>951</v>
+        <v>957</v>
       </c>
     </row>
     <row r="296" spans="1:4">
@@ -7537,13 +7555,13 @@
         <v>303</v>
       </c>
       <c r="B296" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="C296" t="s">
-        <v>618</v>
+        <v>624</v>
       </c>
       <c r="D296" s="2" t="s">
-        <v>952</v>
+        <v>958</v>
       </c>
     </row>
     <row r="297" spans="1:4">
@@ -7551,13 +7569,13 @@
         <v>304</v>
       </c>
       <c r="B297" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="C297" t="s">
-        <v>619</v>
+        <v>625</v>
       </c>
       <c r="D297" s="2" t="s">
-        <v>953</v>
+        <v>959</v>
       </c>
     </row>
     <row r="298" spans="1:4">
@@ -7565,13 +7583,13 @@
         <v>305</v>
       </c>
       <c r="B298" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="C298" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="D298" s="2" t="s">
-        <v>954</v>
+        <v>960</v>
       </c>
     </row>
     <row r="299" spans="1:4">
@@ -7579,13 +7597,13 @@
         <v>306</v>
       </c>
       <c r="B299" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="C299" t="s">
-        <v>539</v>
+        <v>545</v>
       </c>
       <c r="D299" s="2" t="s">
-        <v>955</v>
+        <v>961</v>
       </c>
     </row>
     <row r="300" spans="1:4">
@@ -7593,13 +7611,13 @@
         <v>307</v>
       </c>
       <c r="B300" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="C300" t="s">
-        <v>620</v>
+        <v>626</v>
       </c>
       <c r="D300" s="2" t="s">
-        <v>956</v>
+        <v>962</v>
       </c>
     </row>
     <row r="301" spans="1:4">
@@ -7607,13 +7625,13 @@
         <v>308</v>
       </c>
       <c r="B301" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="C301" t="s">
-        <v>621</v>
+        <v>627</v>
       </c>
       <c r="D301" s="2" t="s">
-        <v>957</v>
+        <v>963</v>
       </c>
     </row>
     <row r="302" spans="1:4">
@@ -7621,13 +7639,13 @@
         <v>309</v>
       </c>
       <c r="B302" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="C302" t="s">
-        <v>622</v>
+        <v>628</v>
       </c>
       <c r="D302" s="2" t="s">
-        <v>958</v>
+        <v>964</v>
       </c>
     </row>
     <row r="303" spans="1:4">
@@ -7635,13 +7653,13 @@
         <v>310</v>
       </c>
       <c r="B303" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="C303" t="s">
-        <v>623</v>
+        <v>629</v>
       </c>
       <c r="D303" s="2" t="s">
-        <v>959</v>
+        <v>965</v>
       </c>
     </row>
     <row r="304" spans="1:4">
@@ -7649,13 +7667,13 @@
         <v>311</v>
       </c>
       <c r="B304" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="C304" t="s">
-        <v>624</v>
+        <v>630</v>
       </c>
       <c r="D304" s="2" t="s">
-        <v>960</v>
+        <v>966</v>
       </c>
     </row>
     <row r="305" spans="1:4">
@@ -7663,13 +7681,13 @@
         <v>312</v>
       </c>
       <c r="B305" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="C305" t="s">
-        <v>625</v>
+        <v>631</v>
       </c>
       <c r="D305" s="2" t="s">
-        <v>954</v>
+        <v>960</v>
       </c>
     </row>
     <row r="306" spans="1:4">
@@ -7677,13 +7695,13 @@
         <v>313</v>
       </c>
       <c r="B306" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="C306" t="s">
-        <v>626</v>
+        <v>632</v>
       </c>
       <c r="D306" s="2" t="s">
-        <v>961</v>
+        <v>967</v>
       </c>
     </row>
     <row r="307" spans="1:4">
@@ -7691,13 +7709,13 @@
         <v>318</v>
       </c>
       <c r="B307" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="C307" t="s">
-        <v>627</v>
+        <v>633</v>
       </c>
       <c r="D307" s="2" t="s">
-        <v>962</v>
+        <v>968</v>
       </c>
     </row>
     <row r="308" spans="1:4">
@@ -7705,13 +7723,13 @@
         <v>319</v>
       </c>
       <c r="B308" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="C308" t="s">
-        <v>628</v>
+        <v>634</v>
       </c>
       <c r="D308" s="2" t="s">
-        <v>963</v>
+        <v>969</v>
       </c>
     </row>
     <row r="309" spans="1:4">
@@ -7719,13 +7737,13 @@
         <v>320</v>
       </c>
       <c r="B309" t="s">
-        <v>52</v>
+        <v>309</v>
       </c>
       <c r="C309" t="s">
-        <v>629</v>
+        <v>635</v>
       </c>
       <c r="D309" s="2" t="s">
-        <v>964</v>
+        <v>970</v>
       </c>
     </row>
     <row r="310" spans="1:4">
@@ -7733,13 +7751,13 @@
         <v>321</v>
       </c>
       <c r="B310" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="C310" t="s">
-        <v>589</v>
+        <v>595</v>
       </c>
       <c r="D310" s="2" t="s">
-        <v>965</v>
+        <v>971</v>
       </c>
     </row>
     <row r="311" spans="1:4">
@@ -7747,13 +7765,13 @@
         <v>322</v>
       </c>
       <c r="B311" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="C311" t="s">
-        <v>630</v>
+        <v>636</v>
       </c>
       <c r="D311" s="2" t="s">
-        <v>966</v>
+        <v>972</v>
       </c>
     </row>
     <row r="312" spans="1:4">
@@ -7761,13 +7779,13 @@
         <v>323</v>
       </c>
       <c r="B312" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="C312" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="D312" s="2" t="s">
-        <v>967</v>
+        <v>973</v>
       </c>
     </row>
     <row r="313" spans="1:4">
@@ -7775,13 +7793,13 @@
         <v>324</v>
       </c>
       <c r="B313" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="C313" t="s">
-        <v>593</v>
+        <v>599</v>
       </c>
       <c r="D313" s="2" t="s">
-        <v>968</v>
+        <v>974</v>
       </c>
     </row>
     <row r="314" spans="1:4">
@@ -7789,13 +7807,13 @@
         <v>325</v>
       </c>
       <c r="B314" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="C314" t="s">
-        <v>631</v>
+        <v>637</v>
       </c>
       <c r="D314" s="2" t="s">
-        <v>969</v>
+        <v>975</v>
       </c>
     </row>
     <row r="315" spans="1:4">
@@ -7803,13 +7821,13 @@
         <v>326</v>
       </c>
       <c r="B315" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="C315" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="D315" s="2" t="s">
-        <v>970</v>
+        <v>976</v>
       </c>
     </row>
     <row r="316" spans="1:4">
@@ -7817,13 +7835,13 @@
         <v>327</v>
       </c>
       <c r="B316" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="C316" t="s">
-        <v>575</v>
+        <v>581</v>
       </c>
       <c r="D316" s="2" t="s">
-        <v>971</v>
+        <v>977</v>
       </c>
     </row>
     <row r="317" spans="1:4">
@@ -7831,13 +7849,13 @@
         <v>328</v>
       </c>
       <c r="B317" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="C317" t="s">
-        <v>632</v>
+        <v>638</v>
       </c>
       <c r="D317" s="2" t="s">
-        <v>972</v>
+        <v>978</v>
       </c>
     </row>
     <row r="318" spans="1:4">
@@ -7845,13 +7863,13 @@
         <v>329</v>
       </c>
       <c r="B318" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="C318" t="s">
-        <v>633</v>
+        <v>639</v>
       </c>
       <c r="D318" s="2" t="s">
-        <v>973</v>
+        <v>979</v>
       </c>
     </row>
     <row r="319" spans="1:4">
@@ -7859,13 +7877,13 @@
         <v>330</v>
       </c>
       <c r="B319" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="C319" t="s">
-        <v>634</v>
+        <v>640</v>
       </c>
       <c r="D319" s="2" t="s">
-        <v>925</v>
+        <v>931</v>
       </c>
     </row>
     <row r="320" spans="1:4">
@@ -7873,13 +7891,13 @@
         <v>331</v>
       </c>
       <c r="B320" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="C320" t="s">
-        <v>635</v>
+        <v>641</v>
       </c>
       <c r="D320" s="2" t="s">
-        <v>974</v>
+        <v>980</v>
       </c>
     </row>
     <row r="321" spans="1:4">
@@ -7887,13 +7905,13 @@
         <v>332</v>
       </c>
       <c r="B321" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="C321" t="s">
-        <v>636</v>
+        <v>642</v>
       </c>
       <c r="D321" s="2" t="s">
-        <v>931</v>
+        <v>937</v>
       </c>
     </row>
     <row r="322" spans="1:4">
@@ -7901,13 +7919,13 @@
         <v>333</v>
       </c>
       <c r="B322" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="C322" t="s">
-        <v>637</v>
+        <v>643</v>
       </c>
       <c r="D322" s="2" t="s">
-        <v>975</v>
+        <v>981</v>
       </c>
     </row>
     <row r="323" spans="1:4">
@@ -7915,13 +7933,13 @@
         <v>334</v>
       </c>
       <c r="B323" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="C323" t="s">
-        <v>638</v>
+        <v>644</v>
       </c>
       <c r="D323" s="2" t="s">
-        <v>976</v>
+        <v>982</v>
       </c>
     </row>
     <row r="324" spans="1:4">
@@ -7929,13 +7947,13 @@
         <v>335</v>
       </c>
       <c r="B324" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="C324" t="s">
-        <v>639</v>
+        <v>645</v>
       </c>
       <c r="D324" s="2" t="s">
-        <v>977</v>
+        <v>983</v>
       </c>
     </row>
     <row r="325" spans="1:4">
@@ -7943,13 +7961,13 @@
         <v>336</v>
       </c>
       <c r="B325" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="C325" t="s">
-        <v>640</v>
+        <v>646</v>
       </c>
       <c r="D325" s="2" t="s">
-        <v>978</v>
+        <v>984</v>
       </c>
     </row>
     <row r="326" spans="1:4">
@@ -7957,13 +7975,13 @@
         <v>337</v>
       </c>
       <c r="B326" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="C326" t="s">
-        <v>641</v>
+        <v>647</v>
       </c>
       <c r="D326" s="2" t="s">
-        <v>979</v>
+        <v>985</v>
       </c>
     </row>
     <row r="327" spans="1:4">
@@ -7971,13 +7989,13 @@
         <v>338</v>
       </c>
       <c r="B327" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="C327" t="s">
-        <v>642</v>
+        <v>648</v>
       </c>
       <c r="D327" s="2" t="s">
-        <v>980</v>
+        <v>986</v>
       </c>
     </row>
     <row r="328" spans="1:4">
@@ -7985,13 +8003,13 @@
         <v>339</v>
       </c>
       <c r="B328" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="C328" t="s">
-        <v>643</v>
+        <v>649</v>
       </c>
       <c r="D328" s="2" t="s">
-        <v>981</v>
+        <v>987</v>
       </c>
     </row>
     <row r="329" spans="1:4">
@@ -7999,13 +8017,13 @@
         <v>340</v>
       </c>
       <c r="B329" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="C329" t="s">
-        <v>644</v>
+        <v>650</v>
       </c>
       <c r="D329" s="2" t="s">
-        <v>982</v>
+        <v>988</v>
       </c>
     </row>
     <row r="330" spans="1:4">
@@ -8013,13 +8031,13 @@
         <v>341</v>
       </c>
       <c r="B330" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="C330" t="s">
-        <v>645</v>
+        <v>651</v>
       </c>
       <c r="D330" s="2" t="s">
-        <v>983</v>
+        <v>989</v>
       </c>
     </row>
     <row r="331" spans="1:4">
@@ -8027,13 +8045,13 @@
         <v>342</v>
       </c>
       <c r="B331" t="s">
-        <v>52</v>
+        <v>331</v>
       </c>
       <c r="C331" t="s">
-        <v>646</v>
+        <v>652</v>
       </c>
       <c r="D331" s="2" t="s">
-        <v>984</v>
+        <v>990</v>
       </c>
     </row>
     <row r="332" spans="1:4">
@@ -8041,13 +8059,13 @@
         <v>343</v>
       </c>
       <c r="B332" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="C332" t="s">
-        <v>647</v>
+        <v>653</v>
       </c>
       <c r="D332" s="2" t="s">
-        <v>689</v>
+        <v>695</v>
       </c>
     </row>
     <row r="333" spans="1:4">
@@ -8055,13 +8073,13 @@
         <v>344</v>
       </c>
       <c r="B333" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="C333" t="s">
-        <v>615</v>
+        <v>621</v>
       </c>
       <c r="D333" s="2" t="s">
-        <v>985</v>
+        <v>991</v>
       </c>
     </row>
     <row r="334" spans="1:4">
@@ -8069,13 +8087,13 @@
         <v>345</v>
       </c>
       <c r="B334" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="C334" t="s">
-        <v>648</v>
+        <v>654</v>
       </c>
       <c r="D334" s="2" t="s">
-        <v>986</v>
+        <v>992</v>
       </c>
     </row>
     <row r="335" spans="1:4">
@@ -8083,13 +8101,13 @@
         <v>346</v>
       </c>
       <c r="B335" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="C335" t="s">
-        <v>649</v>
+        <v>655</v>
       </c>
       <c r="D335" s="2" t="s">
-        <v>987</v>
+        <v>993</v>
       </c>
     </row>
     <row r="336" spans="1:4">
@@ -8097,13 +8115,13 @@
         <v>347</v>
       </c>
       <c r="B336" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="C336" t="s">
-        <v>650</v>
+        <v>656</v>
       </c>
       <c r="D336" s="2" t="s">
-        <v>988</v>
+        <v>994</v>
       </c>
     </row>
     <row r="337" spans="1:4">
@@ -8111,13 +8129,13 @@
         <v>348</v>
       </c>
       <c r="B337" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="C337" t="s">
-        <v>650</v>
+        <v>656</v>
       </c>
       <c r="D337" s="2" t="s">
-        <v>989</v>
+        <v>995</v>
       </c>
     </row>
     <row r="338" spans="1:4">
@@ -8125,13 +8143,13 @@
         <v>349</v>
       </c>
       <c r="B338" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="C338" t="s">
-        <v>650</v>
+        <v>656</v>
       </c>
       <c r="D338" s="2" t="s">
-        <v>990</v>
+        <v>996</v>
       </c>
     </row>
     <row r="339" spans="1:4">
@@ -8139,13 +8157,13 @@
         <v>350</v>
       </c>
       <c r="B339" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="C339" t="s">
-        <v>650</v>
+        <v>656</v>
       </c>
       <c r="D339" s="2" t="s">
-        <v>991</v>
+        <v>997</v>
       </c>
     </row>
     <row r="340" spans="1:4">
@@ -8153,13 +8171,13 @@
         <v>351</v>
       </c>
       <c r="B340" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="C340" t="s">
-        <v>651</v>
+        <v>657</v>
       </c>
       <c r="D340" s="2" t="s">
-        <v>992</v>
+        <v>998</v>
       </c>
     </row>
     <row r="341" spans="1:4">
@@ -8167,13 +8185,13 @@
         <v>352</v>
       </c>
       <c r="B341" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="C341" t="s">
-        <v>651</v>
+        <v>657</v>
       </c>
       <c r="D341" s="2" t="s">
-        <v>993</v>
+        <v>999</v>
       </c>
     </row>
     <row r="342" spans="1:4">
@@ -8181,13 +8199,13 @@
         <v>353</v>
       </c>
       <c r="B342" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="C342" t="s">
-        <v>652</v>
+        <v>658</v>
       </c>
       <c r="D342" s="2" t="s">
-        <v>994</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="343" spans="1:4">
@@ -8195,13 +8213,13 @@
         <v>354</v>
       </c>
       <c r="B343" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="C343" t="s">
-        <v>653</v>
+        <v>659</v>
       </c>
       <c r="D343" s="2" t="s">
-        <v>995</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="344" spans="1:4">
@@ -8209,13 +8227,13 @@
         <v>355</v>
       </c>
       <c r="B344" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="C344" t="s">
-        <v>654</v>
+        <v>660</v>
       </c>
       <c r="D344" s="2" t="s">
-        <v>996</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="345" spans="1:4">
@@ -8223,13 +8241,13 @@
         <v>356</v>
       </c>
       <c r="B345" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="C345" t="s">
-        <v>655</v>
+        <v>661</v>
       </c>
       <c r="D345" s="2" t="s">
-        <v>997</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="346" spans="1:4">
@@ -8237,13 +8255,13 @@
         <v>357</v>
       </c>
       <c r="B346" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="C346" t="s">
-        <v>656</v>
+        <v>662</v>
       </c>
       <c r="D346" s="2" t="s">
-        <v>998</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="347" spans="1:4">
@@ -8251,13 +8269,13 @@
         <v>358</v>
       </c>
       <c r="B347" t="s">
-        <v>52</v>
+        <v>347</v>
       </c>
       <c r="C347" t="s">
-        <v>654</v>
+        <v>660</v>
       </c>
       <c r="D347" s="2" t="s">
-        <v>999</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="348" spans="1:4">
@@ -8265,13 +8283,13 @@
         <v>359</v>
       </c>
       <c r="B348" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="C348" t="s">
-        <v>657</v>
+        <v>663</v>
       </c>
       <c r="D348" s="2" t="s">
-        <v>1000</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="349" spans="1:4">
@@ -8279,13 +8297,13 @@
         <v>360</v>
       </c>
       <c r="B349" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="C349" t="s">
-        <v>658</v>
+        <v>664</v>
       </c>
       <c r="D349" s="2" t="s">
-        <v>1001</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="350" spans="1:4">
@@ -8293,13 +8311,13 @@
         <v>361</v>
       </c>
       <c r="B350" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="C350" t="s">
-        <v>659</v>
+        <v>665</v>
       </c>
       <c r="D350" s="2" t="s">
-        <v>1002</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="351" spans="1:4">
@@ -8307,13 +8325,13 @@
         <v>362</v>
       </c>
       <c r="B351" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="C351" t="s">
-        <v>659</v>
+        <v>665</v>
       </c>
       <c r="D351" s="2" t="s">
-        <v>1003</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="352" spans="1:4">
@@ -8321,13 +8339,13 @@
         <v>363</v>
       </c>
       <c r="B352" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="C352" t="s">
-        <v>660</v>
+        <v>666</v>
       </c>
       <c r="D352" s="2" t="s">
-        <v>1004</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="353" spans="1:4">
@@ -8335,13 +8353,13 @@
         <v>364</v>
       </c>
       <c r="B353" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="C353" t="s">
-        <v>661</v>
+        <v>667</v>
       </c>
       <c r="D353" s="2" t="s">
-        <v>1005</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="354" spans="1:4">
@@ -8349,13 +8367,13 @@
         <v>365</v>
       </c>
       <c r="B354" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="C354" t="s">
-        <v>655</v>
+        <v>661</v>
       </c>
       <c r="D354" s="2" t="s">
-        <v>997</v>
+        <v>1003</v>
       </c>
     </row>
   </sheetData>
